--- a/01_C#/学习笔记_开发工具_VisualStudio.xlsx
+++ b/01_C#/学习笔记_开发工具_VisualStudio.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DE60E-1C53-421E-9475-05AE8749692E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -15,8 +14,14 @@
     <sheet name="示例" sheetId="6" r:id="rId5"/>
     <sheet name="总结" sheetId="4" r:id="rId6"/>
     <sheet name="参考" sheetId="7" r:id="rId7"/>
+    <sheet name="22" sheetId="8" r:id="rId8"/>
+    <sheet name="19" sheetId="13" r:id="rId9"/>
+    <sheet name="17" sheetId="12" r:id="rId10"/>
+    <sheet name="13" sheetId="11" r:id="rId11"/>
+    <sheet name="10" sheetId="10" r:id="rId12"/>
+    <sheet name="08" sheetId="9" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,14 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -48,7 +53,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -63,7 +68,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -78,7 +83,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -90,7 +95,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +109,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -116,7 +121,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +135,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -180,22 +185,26 @@
   <si>
     <t>一般就是Properties文件夹下已经没有licenses.licx文件了，程序还是报这个错，这个时候你只需要重命名一个空的txt文件为licenses.licx再放入Properties文件夹，问题也可解决。</t>
   </si>
+  <si>
+    <t>VS 2022可创建的Web项目：基于ASP.NET Core 6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,7 +213,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -213,7 +222,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,14 +231,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,7 +246,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,8 +289,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF2D64B3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -326,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,9 +376,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -387,7 +406,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FF59F001-1D85-4CE6-96A9-EA323BC37831}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -423,7 +442,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Lc.exe已退出 代码为-1问题解决方法">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441A7C69-B875-4A65-806C-79F75558B9BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{441A7C69-B875-4A65-806C-79F75558B9BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -484,7 +503,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Lc.exe已退出 代码为-1问题解决方法">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60D968B-46F9-4F99-ABE1-7280FF18F748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B60D968B-46F9-4F99-ABE1-7280FF18F748}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -545,7 +564,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="Lc.exe已退出 代码为-1问题解决方法">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79CA8C8-A283-4573-99F1-A22ACD1C1464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A79CA8C8-A283-4573-99F1-A22ACD1C1464}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -606,7 +625,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="Lc.exe已退出 代码为-1问题解决方法">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C386B9-7D41-4E96-BAAC-469BCE52870C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9C386B9-7D41-4E96-BAAC-469BCE52870C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,7 +686,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="Lc.exe已退出 代码为-1问题解决方法">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5BBD8F-0B07-41DA-9284-690298C2B841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A5BBD8F-0B07-41DA-9284-690298C2B841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -697,6 +716,131 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6029325" y="390525"/>
+          <a:ext cx="5057775" cy="5286375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="333375"/>
+          <a:ext cx="5029200" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -756,7 +900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -791,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -968,19 +1112,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -988,15 +1132,73 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1014,18 +1216,18 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1"/>
-    <col min="7" max="7" width="63.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="63.625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1063,7 +1265,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1075,7 +1277,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1087,7 +1289,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1099,7 +1301,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1111,7 +1313,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1123,7 +1325,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1135,7 +1337,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1147,7 +1349,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1159,7 +1361,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1171,7 +1373,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1183,7 +1385,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1195,7 +1397,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1207,7 +1409,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1219,7 +1421,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1231,7 +1433,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1243,7 +1445,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1255,7 +1457,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1267,7 +1469,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1279,7 +1481,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1291,7 +1493,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1303,7 +1505,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1315,7 +1517,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1327,7 +1529,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1339,7 +1541,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1351,7 +1553,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1363,7 +1565,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1375,7 +1577,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1387,7 +1589,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1399,7 +1601,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1418,14 +1620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1433,14 +1635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,130 +1650,130 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="2:2" ht="15">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="2:2" ht="15">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
     </row>
-    <row r="20" spans="2:2" ht="15">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:2" ht="15">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="2:2" ht="15">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B24" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="2:2" ht="15">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
     </row>
-    <row r="29" spans="2:2" ht="15">
+    <row r="29" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15">
+    <row r="42" spans="2:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15.6">
+    <row r="46" spans="2:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C48" s="14"/>
     </row>
   </sheetData>
@@ -1583,14 +1785,54 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_C#/学习笔记_开发工具_VisualStudio.xlsx
+++ b/01_C#/学习笔记_开发工具_VisualStudio.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -189,12 +189,161 @@
     <t>VS 2022可创建的Web项目：基于ASP.NET Core 6.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Visual Studio模板代码注释</t>
+  </si>
+  <si>
+    <t>在日常开发过程中，难免有这样一种需求：就是你所建的每一个类文件或者接口文件都需要标注下作者姓名以及类的用途。如果我们每次创建文件的时候都需要写一遍这些信息是很烦神的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还好Visual Studio给我们提供了模板注释的功能来自动帮我们生成类似的注释代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先定位到你的VS的安装目录：</t>
+  </si>
+  <si>
+    <t>个人安装VS2022社区版64位：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files\Microsoft Visual Studio\2022\Community\Common7\IDE\ItemTemplates\CSharp\Code\2052\Class\Class.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类模板：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能直接修改，需要复制出来，改好后，再粘贴过去覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口模板：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files\Microsoft Visual Studio\2022\Community\Common7\IDE\ItemTemplates\CSharp\Code\2052\Interface\Interface.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$time$</t>
+  </si>
+  <si>
+    <t>$username$</t>
+  </si>
+  <si>
+    <t>$safeitemrootname$</t>
+  </si>
+  <si>
+    <t>$machinename$</t>
+  </si>
+  <si>
+    <t>using System;</t>
+  </si>
+  <si>
+    <t>using System.Collections.Generic;</t>
+  </si>
+  <si>
+    <t>$if$ ($targetframeworkversion$ &gt;= 3.5)using System.Linq;</t>
+  </si>
+  <si>
+    <t>$endif$using System.Text;</t>
+  </si>
+  <si>
+    <t>$if$ ($targetframeworkversion$ &gt;= 4.5)using System.Threading.Tasks;</t>
+  </si>
+  <si>
+    <t>$endif$</t>
+  </si>
+  <si>
+    <t>/*********************************************************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 对象名称：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 对象类别：类</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 创建作者：黄国辉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 创建日期：$time$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 对象说明：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 电邮地址: guo7892000@126.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 微信号: BreezeeHui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 修改历史：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *      $time$ 新建 黄国辉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * ******************************************************************/</t>
+  </si>
+  <si>
+    <t>namespace $rootnamespace$</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class $safeitemrootname$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>类模板示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口模板示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 对象类别：接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 电邮地址：guo7892000@126.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 微 信 号：BreezeeHui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *******************************************************************/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public interface $safeitemrootname$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +451,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFA0A1A7"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +488,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +570,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1653,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1804,10 +2007,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1817,10 +2020,587 @@
         <v>19</v>
       </c>
     </row>
+    <row r="37" spans="1:13" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B51" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="J51" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="J52" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="J53" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="J54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="J55" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="J56" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="J57" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="J58" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="J59" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="J60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="J61" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="J62" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="J63" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="J64" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="J65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="J66" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="J67" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="J68" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="J69" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="J70" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="J71" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="J72" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B73" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="J73" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B74" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="J74" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
